--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>10223891670.99093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.1216963451921442</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.414168607229996e-06</v>
+        <v>0.06122296418828689</v>
       </c>
       <c r="I2" t="n">
-        <v>3.677023906707764</v>
+        <v>6.325158792985467</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>9673138536.365257</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.1502884968032578</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.037103513934063e-06</v>
+        <v>0.1493751562692463</v>
       </c>
       <c r="I3" t="n">
-        <v>3.684597187042236</v>
+        <v>7.390448694961966</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>7517225452.366463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.1975721147930255</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.421046092976458e-06</v>
+        <v>0.2951548314755211</v>
       </c>
       <c r="I4" t="n">
-        <v>3.671301441192627</v>
+        <v>7.550242180258442</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>10137190094.99208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.1431503253270238</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457430913326766e-06</v>
+        <v>0.1273675273353252</v>
       </c>
       <c r="I5" t="n">
-        <v>3.670517988204956</v>
+        <v>7.377132571187261</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>8058795684.93105</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.1517913070171683</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.009165147189789e-05</v>
+        <v>0.1540084562195155</v>
       </c>
       <c r="I6" t="n">
-        <v>3.678042783737182</v>
+        <v>6.088747780566544</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>10886945416.94838</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1080290260451828</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.550379021902966e-06</v>
+        <v>0.01908538185235605</v>
       </c>
       <c r="I7" t="n">
-        <v>3.679071636199951</v>
+        <v>6.110306984024283</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>3589312194.164662</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.4261885501314023</v>
       </c>
       <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.695867161206746e-06</v>
-      </c>
       <c r="I8" t="n">
-        <v>3.674653272628784</v>
+        <v>7.776616284428448</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>3681347968.132401</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.315919377920151</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>5.090432919933872e-05</v>
+        <v>0.660030158569937</v>
       </c>
       <c r="I9" t="n">
-        <v>3.681621265411377</v>
+        <v>11.82471791193915</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>7543277447.835591</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.1920282900923428</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.656462467416684e-06</v>
+        <v>0.2780627179989055</v>
       </c>
       <c r="I10" t="n">
-        <v>3.67131121635437</v>
+        <v>7.363816447412554</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>10571319630.00253</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1018386850156892</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.589396880605658e-06</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.671549940109253</v>
+        <v>10.94585374280853</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>4413700384.245627</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.2872385186192662</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.764462995795528e-06</v>
+        <v>0.5716044726500343</v>
       </c>
       <c r="I12" t="n">
-        <v>3.690072393417358</v>
+        <v>6.445003906957823</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>9945436505.513622</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.1245768820014215</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.479377184096946e-06</v>
+        <v>0.07010391996808853</v>
       </c>
       <c r="I13" t="n">
-        <v>3.681550302505493</v>
+        <v>7.451421040492439</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>10060257494.17795</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.1377357697655259</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.481475788013046e-06</v>
+        <v>0.1106739623185298</v>
       </c>
       <c r="I14" t="n">
-        <v>3.673899021148681</v>
+        <v>7.044229476819604</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>7108139517.385391</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.2067317033389523</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.387669041951099e-05</v>
+        <v>0.3233946722494923</v>
       </c>
       <c r="I15" t="n">
-        <v>3.689285755157471</v>
+        <v>7.470345437610204</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>4918083570.996941</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.317964468766237</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.119105156316315e-06</v>
+        <v>0.6663353588059733</v>
       </c>
       <c r="I16" t="n">
-        <v>3.686902866363526</v>
+        <v>7.949725893499629</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>8248736421.199645</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.1406748513648397</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.240233617246069e-06</v>
+        <v>0.1197354169865172</v>
       </c>
       <c r="I17" t="n">
-        <v>3.693913106918335</v>
+        <v>11.79808566438973</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>11475174851.33896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1063718641165256</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.073277224804224e-06</v>
+        <v>0.01397620159089363</v>
       </c>
       <c r="I18" t="n">
-        <v>3.695560464859009</v>
+        <v>6.358441823153268</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>8888701733.83573</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.1479331649744274</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.470688284416368e-06</v>
+        <v>0.1421134549949444</v>
       </c>
       <c r="I19" t="n">
-        <v>3.661916198730469</v>
+        <v>6.684694134902536</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>7493041545.088416</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.2045021558707932</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.322469599123008e-06</v>
+        <v>0.3165207755473502</v>
       </c>
       <c r="I20" t="n">
-        <v>3.682054643630981</v>
+        <v>7.789932408203154</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>10370311501.75092</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.1363961535544213</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.72694370127502e-06</v>
+        <v>0.1065438042540994</v>
       </c>
       <c r="I21" t="n">
-        <v>3.675727624893189</v>
+        <v>7.190706838341373</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>7904804876.050761</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1815890135819694</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.096362267497359e-05</v>
+        <v>0.2458774833707083</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>7.297235828539023</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>7966214606.96891</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.15717231856956</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.967537931091445e-06</v>
+        <v>0.1705986020192434</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>6.365107164309586</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>6781390073.972357</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.2027872950824751</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.718828520201213e-05</v>
+        <v>0.3112337044776389</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>6.990964981720779</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>5559960262.62999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.2379139215959592</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.533558854686722e-06</v>
+        <v>0.4195322742980781</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>6.724642506226655</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>7268719685.185154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1506324452477644</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.287926960070686e-06</v>
+        <v>0.1504355804639161</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>11.13227947565442</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>10355599550.7768</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.1413958702072604</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.561752993184868e-06</v>
+        <v>0.1219583833569931</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>7.443713190060792</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>5365248021.384121</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.2148142258114418</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.405963684873986e-06</v>
+        <v>0.3483138208041127</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>11.7181889217415</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>6879850043.408093</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.1983621999592251</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.313867747564481e-06</v>
+        <v>0.2975907355753047</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>6.937700486621955</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>10811737576.39006</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.1424564099080047</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.470000353987549e-06</v>
+        <v>0.1252281232730742</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>7.829880779527273</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>10441764642.60298</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.1409816472968335</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.48806344081754e-06</v>
+        <v>0.1206812966214117</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>7.483661561384911</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>10292494787.34722</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1140138269919352</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.998593775690689e-06</v>
+        <v>0.03753706502052168</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>6.258044341059015</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>5418421441.027647</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.2025542719305063</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.954432627215045e-05</v>
+        <v>0.3105152730027695</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>11.15891172320383</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>9294106830.600842</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1513445515139475</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.606446997652211e-06</v>
+        <v>0.1526310685549286</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>7.150758467017254</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>11577159716.49789</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.1072448588776647</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.414309516688276e-05</v>
+        <v>0.01666772347830876</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>6.311842669210761</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>7550575618.709187</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.2046784481133641</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.426065792973035e-06</v>
+        <v>0.3170643004922673</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>7.856513027076685</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>6225976691.297394</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.1931102652023357</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.45562461061937e-06</v>
+        <v>0.2813985452224095</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>5.672364886428999</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>4095009565.211706</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.2616185610654645</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.729092193823075e-06</v>
+        <v>0.4926158239429918</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>10.89258924770971</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>7536649063.638085</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.154661380695538</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5.42148972704525e-06</v>
+        <v>0.1628571532194227</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>5.943450078999907</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>10288056942.00331</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.1354498218522352</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.315924181560954e-06</v>
+        <v>0.1036261779376881</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>7.084177848143723</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>5007955130.812534</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.2557694061831937</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.761249384115807e-06</v>
+        <v>0.4745823498726879</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>6.511584525831354</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>7638231012.961131</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.1594631463663743</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.632192571365545e-06</v>
+        <v>0.1776614315228011</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>6.512412664856147</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>10559096325.98848</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.1208098582129926</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.947383102105333e-06</v>
+        <v>0.05848984457118661</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>6.484952278281942</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>7403638859.294542</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.2034336464303871</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.891498079164085e-06</v>
+        <v>0.3132264642023311</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>7.656771170456092</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>10210343784.67331</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.1534125836537754</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.379461963468304e-06</v>
+        <v>0.1590069988766203</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>7.963042017274335</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>6539320813.799644</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1642295783583045</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.808901754471326e-06</v>
+        <v>0.1923567728950867</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>10.91922149525912</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>9029201676.537493</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1377984781570554</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2.579180610445808e-05</v>
+        <v>0.1108672979670807</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>6.325158792985467</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>5138779346.575235</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.2981920504178172</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>3.829547352680373e-06</v>
+        <v>0.6053752028911068</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>7.789932408203154</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>4440650054.359879</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.2595411901166209</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.583757990535198e-06</v>
+        <v>0.4862111012275915</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>11.7181889217415</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>4604431076.805905</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.3009399612864291</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.823032807170562e-05</v>
+        <v>0.6138472608882068</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>7.044229476819604</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>7010789866.427618</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.1782180116370629</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.552258226911804e-06</v>
+        <v>0.2354843791722407</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>6.35179104053488</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>3924568728.098828</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.3570771075982316</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.863795794791275e-06</v>
+        <v>0.7869231654882454</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>7.124126219467842</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>10397264598.44866</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.1146284620070001</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.858860909540289e-06</v>
+        <v>0.03943204041952698</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>6.614791472074462</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>6703395552.223573</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.2160879003357504</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.946292101585737e-06</v>
+        <v>0.3522406746779511</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>7.363816447412554</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>9921613163.473078</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.1496928075635742</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.904308465545332e-06</v>
+        <v>0.1475385924110461</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>7.550242180258442</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>6071725348.135173</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.2528050022011351</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.957910580549149e-06</v>
+        <v>0.4654428240060713</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>7.80324853197786</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>5114270237.964786</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.2135760488156514</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.522275069515133e-06</v>
+        <v>0.3444964090245556</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>11.10564722810501</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>4155434325.466023</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.2742035033539399</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>3.815555200708005e-06</v>
+        <v>0.531416340428441</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>11.58502768399443</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>6888271775.882261</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.1977394104525648</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>8.820427357911675e-06</v>
+        <v>0.2956706191404231</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>6.924384362847248</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>8516796965.813671</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.1802276778654373</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>4.781195619567447e-05</v>
+        <v>0.2416803621046134</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>7.80324853197786</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>4433854423.918049</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.2386712460137278</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1.315308002177646e-06</v>
+        <v>0.4218671740443704</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>10.75942800996265</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>10030264534.46703</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1501604713240029</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>6.208881686386862e-06</v>
+        <v>0.1489804421255878</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>7.656771170456092</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>5400097800.776477</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.272120588221329</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.359861499888466e-06</v>
+        <v>0.5249945244925293</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>7.470345437610204</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>11604116371.42658</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.1178307366312551</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.733407884743681e-06</v>
+        <v>0.04930494301226428</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>6.95101661039666</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>4653419998.07022</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.2594949070792596</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>3.598257543984382e-06</v>
+        <v>0.486068406433053</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>5.907969161717288</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>4327544524.465173</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.2844831042269055</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.824442398699125e-06</v>
+        <v>0.5631092806098661</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>6.65008431010776</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>9656640649.322359</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.1245049964745628</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>4.36614293133831e-06</v>
+        <v>0.06988229038044234</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>5.408926542427229</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>4926285178.435691</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.2371458203666093</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.580025569515267e-06</v>
+        <v>0.4171641486659742</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>6.974062925310278</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>4484216147.097651</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.3177697312655811</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.862607815305178e-06</v>
+        <v>0.6657349654603915</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>7.243971333440198</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>7333767837.678099</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.1810843701892342</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.511923397614638e-06</v>
+        <v>0.2443216221017195</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>6.751274753776067</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>4336324790.977551</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.2518920243872605</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1.298799601933331e-05</v>
+        <v>0.4626280307471045</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>11.10564722810501</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>8743872723.748238</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1398985516655173</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.414434967771974e-06</v>
+        <v>0.1173420147292185</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>5.984390694115337</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>7984212914.516986</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1669882209147798</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.462253045823089e-06</v>
+        <v>0.2008619176574906</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>6.777907001325479</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>6056553595.449587</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.1959173069799142</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>4.471176236929114e-06</v>
+        <v>0.2900529091654227</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>5.215407296708401</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>10938064593.87946</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.1360216432468799</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>5.56605195564375e-06</v>
+        <v>0.1053891550686966</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>7.563558304033148</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>10316107513.08301</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.1127372081499789</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1.516365743385065e-06</v>
+        <v>0.03360113354880409</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>11.82471791193915</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>5971687444.367712</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.2280901022850198</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1.818715215249289e-06</v>
+        <v>0.3892445499377343</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>6.924384362847248</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>8559091016.575947</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1462852092091537</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>5.870810909284028e-06</v>
+        <v>0.1370326581686969</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>6.365107164309586</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>4708820821.609478</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.2364160353885569</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2.393618396991663e-06</v>
+        <v>0.4149141555056811</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>11.31870520850031</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>6286227100.291405</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1925094592818484</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.722678393607376e-06</v>
+        <v>0.2795462061740399</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>6.830253958300903</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>6647441890.811762</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.1670750009165368</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1.557065410493904e-06</v>
+        <v>0.2011294682597578</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>11.2920729609509</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>9373767087.041719</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1223939969221142</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>4.367436498089696e-06</v>
+        <v>0.06337388763547608</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>11.66492442664267</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>6584442970.674612</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.1738451430285107</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>7.525393744067401e-06</v>
+        <v>0.2220024293431814</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>11.63829217909326</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>4944052899.363324</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.2786780740508314</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>2.819368957972547e-06</v>
+        <v>0.5452118470037101</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>7.004281105495486</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>10756808178.466</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.1176153138560868</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.764508407303052e-06</v>
+        <v>0.04864077509256629</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>6.431687783183117</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>6504731115.968853</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.2069826463225704</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3.533604161133497e-06</v>
+        <v>0.3241683521877547</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>6.84448762019901</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>3924861612.744704</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.276964376647108</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>4.713082748006539e-06</v>
+        <v>0.5399283627540341</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>11.05238273300619</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>3920512900.948729</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.2999878178478619</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>2.240543810243818e-06</v>
+        <v>0.6109117164623522</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>6.036376060556482</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>11127379857.26022</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.1198188187248851</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>3.49763982552559e-06</v>
+        <v>0.05543438010304515</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>6.777907001325479</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>3746491477.512467</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.3188161102646003</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.353982988829032e-05</v>
+        <v>0.6689610466509784</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>6.137860998446054</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>10003539877.85261</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.1259480749199012</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>3.924435579730491e-06</v>
+        <v>0.07433143188023493</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>6.405055535633704</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>4887386633.052687</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.2942360034040912</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.501251276300314e-06</v>
+        <v>0.5931783517769106</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>7.310551952313729</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>5059831625.531363</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.2490056356109849</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1.40104580111556e-05</v>
+        <v>0.453729032823224</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>6.405055535633704</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>7802744117.690799</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1524083120070252</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>2.120913392803343e-06</v>
+        <v>0.1559107384653763</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>6.108368132341753</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>5248710957.837864</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.2909484599679824</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>2.286775724844423e-06</v>
+        <v>0.5830425577171967</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>7.763300160653742</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>9440433749.599163</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.1650916781303798</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1.66667746181628e-06</v>
+        <v>0.1950147045448127</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>7.923093645950217</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>7562011607.177423</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.2074864059334136</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.835236800325816e-05</v>
+        <v>0.3257214886771545</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>7.976358141049041</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>9458353008.983349</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.1129912490033899</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>4.904092816322296e-06</v>
+        <v>0.03438436450011161</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>10.8659570001603</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>5559906514.869383</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.2511076159763091</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.200262641590411e-06</v>
+        <v>0.4602096285977106</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>7.097493971918429</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>8714291168.814009</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.1337605695540053</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2.771763854771162e-06</v>
+        <v>0.09841806016144876</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>3.646808440622844</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>10159711450.99648</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.1673260228107425</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>6.532065530557086e-06</v>
+        <v>0.2019033914865063</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>8.642164329784354</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>10223891670.99093</v>
+        <v>7939973098.782995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1216963451921442</v>
+        <v>0.1573618719428042</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06122296418828689</v>
+        <v>0.2893850518180062</v>
       </c>
       <c r="I2" t="n">
-        <v>6.325158792985467</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.066754319024688</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7493534123302836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.920313927580985</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>9673138536.365257</v>
+        <v>10633867019.10048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1502884968032578</v>
+        <v>0.1480414779658554</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1493751562692463</v>
+        <v>0.2573451183711711</v>
       </c>
       <c r="I3" t="n">
-        <v>7.390448694961966</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.308253331769755</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8282310028826205</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.25636672588266</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7517225452.366463</v>
+        <v>10010197725.91952</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1975721147930255</v>
+        <v>0.1308360769546831</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2951548314755211</v>
+        <v>0.1981995602877414</v>
       </c>
       <c r="I4" t="n">
-        <v>7.550242180258442</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.942623785549114</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.765457760731218</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.366531429075245</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>10137190094.99208</v>
+        <v>14711257229.0993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1431503253270238</v>
+        <v>0.07317996505903754</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1273675273353252</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7.377132571187261</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8130520604640873</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.26104120928175</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>8058795684.93105</v>
+        <v>7566885474.278886</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1517913070171683</v>
+        <v>0.1779287481720882</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1540084562195155</v>
+        <v>0.3600860701682282</v>
       </c>
       <c r="I6" t="n">
-        <v>6.088747780566544</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.018732420857171</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7748858234281797</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.478984047706422</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10886945416.94838</v>
+        <v>6656934747.321425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1080290260451828</v>
+        <v>0.2408115357665225</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01908538185235605</v>
+        <v>0.5762529333351775</v>
       </c>
       <c r="I7" t="n">
-        <v>6.110306984024283</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.290903417752274</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8344291048259346</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.39767867876642</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>3589312194.164662</v>
+        <v>9115827663.864269</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4261885501314023</v>
+        <v>0.1321788261505182</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.2028154161170928</v>
       </c>
       <c r="I8" t="n">
-        <v>7.776616284428448</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.922957409396926</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7369095885450905</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.815234361504885</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>3681347968.132401</v>
+        <v>9604281067.261705</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.315919377920151</v>
+        <v>0.1388203344594673</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.660030158569937</v>
+        <v>0.2256463699084897</v>
       </c>
       <c r="I9" t="n">
-        <v>11.82471791193915</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.228172630711071</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.771549469321003</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.202816755708987</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>7543277447.835591</v>
+        <v>15544979977.45332</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1920282900923428</v>
+        <v>0.08795904414049965</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2780627179989055</v>
+        <v>0.05080479552116272</v>
       </c>
       <c r="I10" t="n">
-        <v>7.363816447412554</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.901911572140895</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7801552937225129</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.701194302309363</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>10571319630.00253</v>
+        <v>7285089664.864878</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1018386850156892</v>
+        <v>0.2081823120605517</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.4640861989088453</v>
       </c>
       <c r="I11" t="n">
-        <v>10.94585374280853</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.977531525547702</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8154994401924549</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.3324572783014</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4413700384.245627</v>
+        <v>7841969750.295661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2872385186192662</v>
+        <v>0.1623346659749617</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5716044726500343</v>
+        <v>0.3064796070727729</v>
       </c>
       <c r="I12" t="n">
-        <v>6.445003906957823</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.974385408024853</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7557506693809295</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.140627979593736</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9945436505.513622</v>
+        <v>4895673713.343828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1245768820014215</v>
+        <v>0.2926678561307487</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07010391996808853</v>
+        <v>0.7545150387114875</v>
       </c>
       <c r="I13" t="n">
-        <v>7.451421040492439</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.985696980924305</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7961089353884502</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.936481726844697</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10060257494.17795</v>
+        <v>7999665988.812024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1377357697655259</v>
+        <v>0.2013740138967011</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1106739623185298</v>
+        <v>0.4406818856796535</v>
       </c>
       <c r="I14" t="n">
-        <v>7.044229476819604</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2040126255110894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.017634230080491</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8361009841572062</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.70438545306363</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>7108139517.385391</v>
+        <v>12568320859.91086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2067317033389523</v>
+        <v>0.07815453320683018</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3233946722494923</v>
+        <v>0.01710065398267637</v>
       </c>
       <c r="I15" t="n">
-        <v>7.470345437610204</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7909976413866122</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15.81995282773224</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>4918083570.996941</v>
+        <v>4313809465.75094</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.317964468766237</v>
+        <v>0.3090700969955582</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6663353588059733</v>
+        <v>0.8108996407988227</v>
       </c>
       <c r="I16" t="n">
-        <v>7.949725893499629</v>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8749181292284075</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2407637233452737</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.054385327914675</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9646975655722223</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.23956598352977</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>8248736421.199645</v>
+        <v>9088024277.679001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1406748513648397</v>
+        <v>0.1579469504197445</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1197354169865172</v>
+        <v>0.2913963268251257</v>
       </c>
       <c r="I17" t="n">
-        <v>11.79808566438973</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.223658322970802</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7967317256206946</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.710976189443089</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>11475174851.33896</v>
+        <v>6255066200.994884</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1063718641165256</v>
+        <v>0.1754616777397873</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01397620159089363</v>
+        <v>0.3516052299102875</v>
       </c>
       <c r="I18" t="n">
-        <v>6.358441823153268</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8177678171005823</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.35535634201165</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>8888701733.83573</v>
+        <v>7772371402.705981</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1479331649744274</v>
+        <v>0.1685064869061744</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1421134549949444</v>
+        <v>0.3276959561209893</v>
       </c>
       <c r="I19" t="n">
-        <v>6.684694134902536</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.314859239489075</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.765457760731218</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.994295975135284</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>7493041545.088416</v>
+        <v>4064926299.900582</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2045021558707932</v>
+        <v>0.3640792577312401</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3165207755473502</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>7.789932408203154</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.559513970126661</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8071496560237124</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.583479150347587</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>10370311501.75092</v>
+        <v>7436415337.522199</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1363961535544213</v>
+        <v>0.132793824064302</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1065438042540994</v>
+        <v>0.2049295426525491</v>
       </c>
       <c r="I21" t="n">
-        <v>7.190706838341373</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7922608822807771</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.84521764561554</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>7904804876.050761</v>
+        <v>5499739613.907779</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1815890135819694</v>
+        <v>0.2876702664248223</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2458774833707083</v>
+        <v>0.7373352454572016</v>
       </c>
       <c r="I22" t="n">
-        <v>7.297235828539023</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.161741325385484</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.975362929954885</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8299321218999515</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.62327950804414</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7966214606.96891</v>
+        <v>8454241839.309833</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15717231856956</v>
+        <v>0.1666893196084681</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1705986020192434</v>
+        <v>0.3214492331365028</v>
       </c>
       <c r="I23" t="n">
-        <v>6.365107164309586</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.285526954737496</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7904519570812331</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.523512186887164</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6781390073.972357</v>
+        <v>4398629695.28062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2027872950824751</v>
+        <v>0.3388402782801008</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3112337044776389</v>
+        <v>0.9132380858705641</v>
       </c>
       <c r="I24" t="n">
-        <v>6.990964981720779</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.109456245903511</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8095558536178193</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10.08166082645288</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>5559960262.62999</v>
+        <v>9589947632.021898</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2379139215959592</v>
+        <v>0.1346575935084367</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4195322742980781</v>
+        <v>0.2113364659111589</v>
       </c>
       <c r="I25" t="n">
-        <v>6.724642506226655</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.146453230173295</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7606403462980322</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.066353695787351</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>7268719685.185154</v>
+        <v>11022662853.92393</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1506324452477644</v>
+        <v>0.1404433312091108</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1504355804639161</v>
+        <v>0.2312256091521969</v>
       </c>
       <c r="I26" t="n">
-        <v>11.13227947565442</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.983309211694822</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8225008973262503</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.46670873483018</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>10355599550.7768</v>
+        <v>10641021240.67784</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1413958702072604</v>
+        <v>0.1444957110058409</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1219583833569931</v>
+        <v>0.2451561339035807</v>
       </c>
       <c r="I27" t="n">
-        <v>7.443713190060792</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.997445979740482</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8201825539726427</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.40620509971237</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5365248021.384121</v>
+        <v>8930998693.556747</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2148142258114418</v>
+        <v>0.1695227456580279</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3483138208041127</v>
+        <v>0.3311894632468338</v>
       </c>
       <c r="I28" t="n">
-        <v>11.7181889217415</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.955684582752858</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.814909621469147</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10.34250784663008</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>6879850043.408093</v>
+        <v>4660142385.631778</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1983621999592251</v>
+        <v>0.3473677167013301</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2975907355753047</v>
+        <v>0.9425521427831687</v>
       </c>
       <c r="I29" t="n">
-        <v>6.937700486621955</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.070845281493666</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8377650990799999</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10.68445670010633</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10811737576.39006</v>
+        <v>5489129702.481867</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1424564099080047</v>
+        <v>0.2276224279114905</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1252281232730742</v>
+        <v>0.5309138479978539</v>
       </c>
       <c r="I30" t="n">
-        <v>7.829880779527273</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8806910486177564</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.90253845370153</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9440848285885831</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12.97915811807013</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>10441764642.60298</v>
+        <v>9828742613.709623</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1409816472968335</v>
+        <v>0.09993864816745519</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1206812966214117</v>
+        <v>0.09198607140846664</v>
       </c>
       <c r="I31" t="n">
-        <v>7.483661561384911</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7909976413866122</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.81995282773224</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>10292494787.34722</v>
+        <v>4326683239.26223</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1140138269919352</v>
+        <v>0.2403452650666702</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03753706502052168</v>
+        <v>0.5746500738178196</v>
       </c>
       <c r="I32" t="n">
-        <v>6.258044341059015</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8046424862951475</v>
+      </c>
+      <c r="N32" t="n">
+        <v>16.09284972590295</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5418421441.027647</v>
+        <v>9125969032.481306</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2025542719305063</v>
+        <v>0.1489664719616486</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3105152730027695</v>
+        <v>0.2605248923310738</v>
       </c>
       <c r="I33" t="n">
-        <v>11.15891172320383</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.011714537057757</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7781889917947563</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.55206529883737</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>9294106830.600842</v>
+        <v>5562016939.579554</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1513445515139475</v>
+        <v>0.1996796076072279</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1526310685549286</v>
+        <v>0.4348571678747101</v>
       </c>
       <c r="I34" t="n">
-        <v>7.150758467017254</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8206832415541552</v>
+      </c>
+      <c r="N34" t="n">
+        <v>16.4136648310831</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>11577159716.49789</v>
+        <v>11200741056.78245</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1072448588776647</v>
+        <v>0.1428876251925199</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01666772347830876</v>
+        <v>0.2396281527299271</v>
       </c>
       <c r="I35" t="n">
-        <v>6.311842669210761</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.253949049578948</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8338700710290131</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10.42345237100132</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>7550575618.709187</v>
+        <v>5412390196.214189</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2046784481133641</v>
+        <v>0.2240743047033643</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3170643004922673</v>
+        <v>0.5187167636545643</v>
       </c>
       <c r="I36" t="n">
-        <v>7.856513027076685</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.958364574648694</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7391412498081795</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.824460421514896</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>6225976691.297394</v>
+        <v>10038627295.98528</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1931102652023357</v>
+        <v>0.09863195343410938</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2813985452224095</v>
+        <v>0.08749415696844684</v>
       </c>
       <c r="I37" t="n">
-        <v>5.672364886428999</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7928907441893841</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15.85781488378768</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>4095009565.211706</v>
+        <v>12324870379.46715</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2616185610654645</v>
+        <v>0.102226356238115</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4926158239429918</v>
+        <v>0.09985033278100178</v>
       </c>
       <c r="I38" t="n">
-        <v>10.89258924770971</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.998884853839929</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7522123167483032</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.045361481126136</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7536649063.638085</v>
+        <v>6050262294.569324</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.154661380695538</v>
+        <v>0.248073620105232</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1628571532194227</v>
+        <v>0.6012171890815561</v>
       </c>
       <c r="I39" t="n">
-        <v>5.943450078999907</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6.693227185258015</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8119454784244705</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.545682383231396</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10288056942.00331</v>
+        <v>10521656543.63763</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1354498218522352</v>
+        <v>0.1321936412038715</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1036261779376881</v>
+        <v>0.2028663445783385</v>
       </c>
       <c r="I40" t="n">
-        <v>7.084177848143723</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.214579481578591</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7859858664742552</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9.505137847906513</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5007955130.812534</v>
+        <v>8806019828.185345</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2557694061831937</v>
+        <v>0.1332596045541519</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4745823498726879</v>
+        <v>0.2065307170162653</v>
       </c>
       <c r="I41" t="n">
-        <v>6.511584525831354</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.9209395775427319</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.064209722393019</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9377464058931009</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12.690718395469</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>7638231012.961131</v>
+        <v>8237196189.089887</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1594631463663743</v>
+        <v>0.1373739867333457</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1776614315228011</v>
+        <v>0.2206743821362422</v>
       </c>
       <c r="I42" t="n">
-        <v>6.512412664856147</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9016165825759977</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.015591798870144</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.9176075068090364</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12.33655833731058</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>10559096325.98848</v>
+        <v>8637906417.435633</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1208098582129926</v>
+        <v>0.1146260878679377</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05848984457118661</v>
+        <v>0.1424758459471519</v>
       </c>
       <c r="I43" t="n">
-        <v>6.484952278281942</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7928907441893841</v>
+      </c>
+      <c r="N43" t="n">
+        <v>15.85781488378768</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7403638859.294542</v>
+        <v>7663198302.196409</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2034336464303871</v>
+        <v>0.2013285640223874</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3132264642023311</v>
+        <v>0.4405256464743387</v>
       </c>
       <c r="I44" t="n">
-        <v>7.656771170456092</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.938373482352151</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8213436342598203</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.48849920284425</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>10210343784.67331</v>
+        <v>4948832050.657829</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1534125836537754</v>
+        <v>0.1990147634670856</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1590069988766203</v>
+        <v>0.4325716891647584</v>
       </c>
       <c r="I45" t="n">
-        <v>7.963042017274335</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7916298497790256</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.83259699558051</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6539320813.799644</v>
+        <v>8884025383.414539</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1642295783583045</v>
+        <v>0.1751365617330091</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1923567728950867</v>
+        <v>0.3504876059938052</v>
       </c>
       <c r="I46" t="n">
-        <v>10.91922149525912</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.32624557072981</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8242297008912223</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.15834844709464</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>9029201676.537493</v>
+        <v>11449044710.78407</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1377984781570554</v>
+        <v>0.09586165813172352</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1108672979670807</v>
+        <v>0.07797094611104698</v>
       </c>
       <c r="I47" t="n">
-        <v>6.325158792985467</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.9118783049520055</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.061926026141061</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9109082949546901</v>
+      </c>
+      <c r="N47" t="n">
+        <v>12.15623987295274</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>5138779346.575235</v>
+        <v>9580451011.500622</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2981920504178172</v>
+        <v>0.159397962388913</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6053752028911068</v>
+        <v>0.2963843484728908</v>
       </c>
       <c r="I48" t="n">
-        <v>7.789932408203154</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.050045421336167</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8178488184488572</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.30693094764098</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>4440650054.359879</v>
+        <v>9134925660.126087</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2595411901166209</v>
+        <v>0.1235868940814585</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4862111012275915</v>
+        <v>0.1732796548227485</v>
       </c>
       <c r="I49" t="n">
-        <v>11.7181889217415</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9081250109440197</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.152833013332538</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.9193075336803371</v>
+      </c>
+      <c r="N49" t="n">
+        <v>12.2333176602742</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>4604431076.805905</v>
+        <v>8750723755.822111</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3009399612864291</v>
+        <v>0.15595306492129</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6138472608882068</v>
+        <v>0.2845421145644538</v>
       </c>
       <c r="I50" t="n">
-        <v>7.044229476819604</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.875445497705789</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7795011451975575</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9.714577406245363</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>7010789866.427618</v>
+        <v>10505609116.0549</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1782180116370629</v>
+        <v>0.1281569155226281</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2354843791722407</v>
+        <v>0.1889896326614341</v>
       </c>
       <c r="I51" t="n">
-        <v>6.35179104053488</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.920633835499697</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7748858234281797</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.577082633063897</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>3924568728.098828</v>
+        <v>4207843198.401699</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3570771075982316</v>
+        <v>0.2664307739475265</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7869231654882454</v>
+        <v>0.6643220308763421</v>
       </c>
       <c r="I52" t="n">
-        <v>7.124126219467842</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8229983014593202</v>
+      </c>
+      <c r="N52" t="n">
+        <v>16.4599660291864</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>10397264598.44866</v>
+        <v>15006396045.88754</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1146284620070001</v>
+        <v>0.09216322931707631</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03943204041952698</v>
+        <v>0.06525716884237978</v>
       </c>
       <c r="I53" t="n">
-        <v>6.614791472074462</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.890357519365617</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.784053570976071</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.790713900155803</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>6703395552.223573</v>
+        <v>9510642664.777639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2160879003357504</v>
+        <v>0.1674533652597529</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3522406746779511</v>
+        <v>0.3240757285269394</v>
       </c>
       <c r="I54" t="n">
-        <v>7.363816447412554</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1669714153500969</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.980593019919498</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8321877010981377</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10.66316100204326</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9921613163.473078</v>
+        <v>10039420141.38226</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1496928075635742</v>
+        <v>0.1317597960212346</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1475385924110461</v>
+        <v>0.2013749515307597</v>
       </c>
       <c r="I55" t="n">
-        <v>7.550242180258442</v>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8975072178031057</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2914382305984708</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.105059835167872</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.9709478721846713</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.31389760852555</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>6071725348.135173</v>
+        <v>9544041212.096079</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2528050022011351</v>
+        <v>0.1311884967987286</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4654428240060713</v>
+        <v>0.1994110443061733</v>
       </c>
       <c r="I56" t="n">
-        <v>7.80324853197786</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8870514454767283</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.08423393870213</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.9473555950336273</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.86287796197042</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5114270237.964786</v>
+        <v>9195484896.852848</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2135760488156514</v>
+        <v>0.1071058950177906</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3444964090245556</v>
+        <v>0.1166243123079099</v>
       </c>
       <c r="I57" t="n">
-        <v>11.10564722810501</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.7916298497790256</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15.83259699558051</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>4155434325.466023</v>
+        <v>8829473580.866901</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2742035033539399</v>
+        <v>0.1833385654505875</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.531416340428441</v>
+        <v>0.3786829434325278</v>
       </c>
       <c r="I58" t="n">
-        <v>11.58502768399443</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2010660388926516</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.014687643462053</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8377650990799999</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10.74061433813795</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>6888271775.882261</v>
+        <v>11759674344.7124</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1977394104525648</v>
+        <v>0.1343142780743925</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2956706191404231</v>
+        <v>0.2101562793562501</v>
       </c>
       <c r="I59" t="n">
-        <v>6.924384362847248</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.222628917437434</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.829365986554326</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10.36469081364909</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>8516796965.813671</v>
+        <v>7810378834.865984</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1802276778654373</v>
+        <v>0.1301247150090945</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2416803621046134</v>
+        <v>0.1957541712355579</v>
       </c>
       <c r="I60" t="n">
-        <v>7.80324853197786</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9185482735254328</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5.855015356364236</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8867911080406222</v>
+      </c>
+      <c r="N60" t="n">
+        <v>11.88080680444821</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>4433854423.918049</v>
+        <v>10409432607.10925</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2386712460137278</v>
+        <v>0.0963766621933682</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4218671740443704</v>
+        <v>0.07974133220210222</v>
       </c>
       <c r="I61" t="n">
-        <v>10.75942800996265</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7960226776225713</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15.92045355245143</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10030264534.46703</v>
+        <v>5905874115.885366</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1501604713240029</v>
+        <v>0.2581302869120603</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1489804421255878</v>
+        <v>0.635788145629603</v>
       </c>
       <c r="I62" t="n">
-        <v>7.656771170456092</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.526350379446254</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8172629503204737</v>
+      </c>
+      <c r="N62" t="n">
+        <v>9.818908626963221</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>5400097800.776477</v>
+        <v>8920730819.728859</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.272120588221329</v>
+        <v>0.1750032000234091</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5249945244925293</v>
+        <v>0.3500291596759236</v>
       </c>
       <c r="I63" t="n">
-        <v>7.470345437610204</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.178597040365148</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8253775527911438</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10.32895401545773</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>11604116371.42658</v>
+        <v>13151916423.66735</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1178307366312551</v>
+        <v>0.09480212615678468</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04930494301226428</v>
+        <v>0.07432868227050625</v>
       </c>
       <c r="I64" t="n">
-        <v>6.95101661039666</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.9384146699327081</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6.198382550105993</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.965772926371025</v>
+      </c>
+      <c r="N64" t="n">
+        <v>13.11707597731451</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>4653419998.07022</v>
+        <v>9469652250.035555</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2594949070792596</v>
+        <v>0.1059412049683486</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.486068406433053</v>
+        <v>0.1126205554106581</v>
       </c>
       <c r="I65" t="n">
-        <v>5.907969161717288</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.7960226776225713</v>
+      </c>
+      <c r="N65" t="n">
+        <v>15.92045355245143</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>4327544524.465173</v>
+        <v>7021414285.658907</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2844831042269055</v>
+        <v>0.1734716540637366</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5631092806098661</v>
+        <v>0.3447642931112656</v>
       </c>
       <c r="I66" t="n">
-        <v>6.65008431010776</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.8909908834307846</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6.374145540721758</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9392154939744045</v>
+      </c>
+      <c r="N66" t="n">
+        <v>12.41016433876633</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>9656640649.322359</v>
+        <v>5764995300.086615</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1245049964745628</v>
+        <v>0.1749290498094332</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06988229038044234</v>
+        <v>0.3497742597299844</v>
       </c>
       <c r="I67" t="n">
-        <v>5.408926542427229</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7972674380860835</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15.94534876172167</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>4926285178.435691</v>
+        <v>10486779512.07683</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2371458203666093</v>
+        <v>0.1281372482803236</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4171641486659742</v>
+        <v>0.1889220242388635</v>
       </c>
       <c r="I68" t="n">
-        <v>6.974062925310278</v>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.8741892242655181</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1233122494071158</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.936933853976517</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.96717941206953</v>
+      </c>
+      <c r="N68" t="n">
+        <v>13.40665438741408</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4484216147.097651</v>
+        <v>7929320004.986599</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3177697312655811</v>
+        <v>0.1552608923874653</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6657349654603915</v>
+        <v>0.2821626913370325</v>
       </c>
       <c r="I69" t="n">
-        <v>7.243971333440198</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.894763246704577</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.744288198551522</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8.991000724325861</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>7333767837.678099</v>
+        <v>4854752657.076646</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1810843701892342</v>
+        <v>0.2174393310154038</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2443216221017195</v>
+        <v>0.4959082733794192</v>
       </c>
       <c r="I70" t="n">
-        <v>6.751274753776067</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.9221809614871352</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.879516822912024</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9012867806653205</v>
+      </c>
+      <c r="N70" t="n">
+        <v>12.14621879039439</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>4336324790.977551</v>
+        <v>7691160151.393886</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2518920243872605</v>
+        <v>0.1951474732622733</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4626280307471045</v>
+        <v>0.4192774313159772</v>
       </c>
       <c r="I71" t="n">
-        <v>11.10564722810501</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.6917285889401</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8119454784244705</v>
+      </c>
+      <c r="N71" t="n">
+        <v>9.547180979549312</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>8743872723.748238</v>
+        <v>9408140950.336584</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1398985516655173</v>
+        <v>0.1481180487575652</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1173420147292185</v>
+        <v>0.2576083393333343</v>
       </c>
       <c r="I72" t="n">
-        <v>5.984390694115337</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.132372215032424</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.786627508275894</v>
+      </c>
+      <c r="N72" t="n">
+        <v>9.600177950485456</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7984212914.516986</v>
+        <v>10013233620.01847</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1669882209147798</v>
+        <v>0.1493694990806817</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2008619176574906</v>
+        <v>0.2619103447167805</v>
       </c>
       <c r="I73" t="n">
-        <v>6.777907001325479</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.164817669421696</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8107527202918425</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10.05023673641516</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>6056553595.449587</v>
+        <v>9948829858.281984</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1959173069799142</v>
+        <v>0.1021550608943175</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2900529091654227</v>
+        <v>0.09960524678184861</v>
       </c>
       <c r="I74" t="n">
-        <v>5.215407296708401</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7991261195429882</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15.98252239085976</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>10938064593.87946</v>
+        <v>8404702705.038294</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1360216432468799</v>
+        <v>0.1234164343943054</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1053891550686966</v>
+        <v>0.1726936799116815</v>
       </c>
       <c r="I75" t="n">
-        <v>7.563558304033148</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.8040339072902729</v>
+      </c>
+      <c r="N75" t="n">
+        <v>16.08067814580546</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>10316107513.08301</v>
+        <v>8616265442.519199</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1127372081499789</v>
+        <v>0.1833151706545142</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03360113354880409</v>
+        <v>0.378602521112286</v>
       </c>
       <c r="I76" t="n">
-        <v>11.82471791193915</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.18255240232859</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.829365986554326</v>
+      </c>
+      <c r="N76" t="n">
+        <v>10.40476732875793</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>5971687444.367712</v>
+        <v>10251442829.84411</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2280901022850198</v>
+        <v>0.1172810530142988</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3892445499377343</v>
+        <v>0.1516025960398474</v>
       </c>
       <c r="I77" t="n">
-        <v>6.924384362847248</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.951060785070212</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7361621856738095</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8.772182928405979</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>8559091016.575947</v>
+        <v>5782820155.875414</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1462852092091537</v>
+        <v>0.207455979550239</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1370326581686969</v>
+        <v>0.461589346807073</v>
       </c>
       <c r="I78" t="n">
-        <v>6.365107164309586</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.876908857466296</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7354130080271597</v>
+      </c>
+      <c r="N78" t="n">
+        <v>8.831351303076897</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4708820821.609478</v>
+        <v>8864370044.621124</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2364160353885569</v>
+        <v>0.1574996150851318</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4149141555056811</v>
+        <v>0.2898585598181884</v>
       </c>
       <c r="I79" t="n">
-        <v>11.31870520850031</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.178794930505757</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7872679311791311</v>
+      </c>
+      <c r="N79" t="n">
+        <v>9.566563693076866</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6286227100.291405</v>
+        <v>10742460647.02383</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1925094592818484</v>
+        <v>0.1370353802885785</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2795462061740399</v>
+        <v>0.2195103832771979</v>
       </c>
       <c r="I80" t="n">
-        <v>6.830253958300903</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6.335577491186347</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.805333962624467</v>
+      </c>
+      <c r="N80" t="n">
+        <v>9.771101761302992</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6647441890.811762</v>
+        <v>4780558558.335612</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1670750009165368</v>
+        <v>0.2120471734903146</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2011294682597578</v>
+        <v>0.4773721075621812</v>
       </c>
       <c r="I81" t="n">
-        <v>11.2920729609509</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.7985076803403806</v>
+      </c>
+      <c r="N81" t="n">
+        <v>15.97015360680761</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9373767087.041719</v>
+        <v>4619435979.875481</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1223939969221142</v>
+        <v>0.2812502317728887</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06337388763547608</v>
+        <v>0.7152656330048675</v>
       </c>
       <c r="I82" t="n">
-        <v>11.66492442664267</v>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.905963191994168</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.09450217647992924</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5.908123781049331</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.9678902151923229</v>
+      </c>
+      <c r="N82" t="n">
+        <v>13.44968052279713</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>6584442970.674612</v>
+        <v>8328609917.158249</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1738451430285107</v>
+        <v>0.1786388766911594</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2220024293431814</v>
+        <v>0.3625272191739476</v>
       </c>
       <c r="I83" t="n">
-        <v>11.63829217909326</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.248483517301146</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8089558688021634</v>
+      </c>
+      <c r="N83" t="n">
+        <v>9.930633858742123</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4944052899.363324</v>
+        <v>5331564298.667474</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2786780740508314</v>
+        <v>0.2972356444047902</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5452118470037101</v>
+        <v>0.7702173397796055</v>
       </c>
       <c r="I84" t="n">
-        <v>7.004281105495486</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6.189441406415969</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8304973575734041</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10.42050574505211</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10756808178.466</v>
+        <v>13778370094.25732</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1176153138560868</v>
+        <v>0.09125224474294187</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.04864077509256629</v>
+        <v>0.06212555389149376</v>
       </c>
       <c r="I85" t="n">
-        <v>6.431687783183117</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5.903817596081251</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7514999677628594</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9.126181759175939</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>6504731115.968853</v>
+        <v>11620550485.23176</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2069826463225704</v>
+        <v>0.1327665769328853</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3241683521877547</v>
+        <v>0.2048358774835266</v>
       </c>
       <c r="I86" t="n">
-        <v>6.84448762019901</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6.07280680468438</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8213436342598203</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10.35406588051202</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>3924861612.744704</v>
+        <v>14018409915.46991</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.276964376647108</v>
+        <v>0.1109910231889409</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5399283627540341</v>
+        <v>0.1299798902313264</v>
       </c>
       <c r="I87" t="n">
-        <v>11.05238273300619</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6.090798993506592</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8242297008912223</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10.39379502431785</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>3920512900.948729</v>
+        <v>3867568900.308434</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2999878178478619</v>
+        <v>0.2993535240982182</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6109117164623522</v>
+        <v>0.7774977964420233</v>
       </c>
       <c r="I88" t="n">
-        <v>6.036376060556482</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.8946351964973646</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.06163923307656</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.9228799538601311</v>
+      </c>
+      <c r="N88" t="n">
+        <v>12.39595984412606</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>11127379857.26022</v>
+        <v>6983898411.694447</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1198188187248851</v>
+        <v>0.2167854299634162</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.05543438010304515</v>
+        <v>0.4936604128020322</v>
       </c>
       <c r="I89" t="n">
-        <v>6.777907001325479</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.988616134757279</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.814909621469147</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10.30957629462566</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>3746491477.512467</v>
+        <v>12707911651.7035</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3188161102646003</v>
+        <v>0.08883891554665185</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6689610466509784</v>
+        <v>0.0538294553547075</v>
       </c>
       <c r="I90" t="n">
-        <v>6.137860998446054</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.8935862085639648</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>6.329282449938208</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9136832085618452</v>
+      </c>
+      <c r="N90" t="n">
+        <v>11.94438172129869</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>10003539877.85261</v>
+        <v>15435057059.0049</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1259480749199012</v>
+        <v>0.07704558884712463</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07433143188023493</v>
+        <v>0.01328852934834407</v>
       </c>
       <c r="I91" t="n">
-        <v>6.405055535633704</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5.851409331425769</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.732398342864394</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8.796557525862111</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>4887386633.052687</v>
+        <v>10820620510.70463</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2942360034040912</v>
+        <v>0.0917460148443329</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5931783517769106</v>
+        <v>0.06382294578562747</v>
       </c>
       <c r="I92" t="n">
-        <v>7.310551952313729</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.7935194407645596</v>
+      </c>
+      <c r="N92" t="n">
+        <v>15.87038881529119</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>5059831625.531363</v>
+        <v>5745833624.244617</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2490056356109849</v>
+        <v>0.1805270580100319</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.453729032823224</v>
+        <v>0.3690180610784695</v>
       </c>
       <c r="I93" t="n">
-        <v>6.405055535633704</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.9058296279226165</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.234991496676566</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8890253428008223</v>
+      </c>
+      <c r="N93" t="n">
+        <v>11.54551535933988</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7802744117.690799</v>
+        <v>6732846930.087074</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1524083120070252</v>
+        <v>0.1991917674538095</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1559107384653763</v>
+        <v>0.4331801608633246</v>
       </c>
       <c r="I94" t="n">
-        <v>6.108368132341753</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.9213324804917479</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6.294795016612081</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.9852001875814836</v>
+      </c>
+      <c r="N94" t="n">
+        <v>13.40920873501759</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>5248710957.837864</v>
+        <v>4305265957.31742</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2909484599679824</v>
+        <v>0.3066413487780416</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5830425577171967</v>
+        <v>0.8025505375912966</v>
       </c>
       <c r="I95" t="n">
-        <v>7.763300160653742</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>6.281377538455207</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7681791079658259</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9.082204620861312</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>9440433749.599163</v>
+        <v>11542194612.92568</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1650916781303798</v>
+        <v>0.1311715380630057</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1950147045448127</v>
+        <v>0.1993527466885783</v>
       </c>
       <c r="I96" t="n">
-        <v>7.923093645950217</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>6.039617953791203</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.814909621469147</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10.25857447559174</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7562011607.177423</v>
+        <v>13195388408.40529</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2074864059334136</v>
+        <v>0.1151346328716069</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3257214886771545</v>
+        <v>0.1442240282785617</v>
       </c>
       <c r="I97" t="n">
-        <v>7.976358141049041</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5.939021366127247</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8160882652091067</v>
+      </c>
+      <c r="N97" t="n">
+        <v>10.38274393805489</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9458353008.983349</v>
+        <v>11939837107.60293</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1129912490033899</v>
+        <v>0.09279875093894349</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.03438436450011161</v>
+        <v>0.0674418480006867</v>
       </c>
       <c r="I98" t="n">
-        <v>10.8659570001603</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.9132152527071465</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5.940667174209867</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.9147254245432123</v>
+      </c>
+      <c r="N98" t="n">
+        <v>12.35384131665438</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>5559906514.869383</v>
+        <v>8699048934.374878</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2511076159763091</v>
+        <v>0.1255637987830784</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4602096285977106</v>
+        <v>0.1800754936281994</v>
       </c>
       <c r="I99" t="n">
-        <v>7.097493971918429</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.9369672992758467</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.007773317173575</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.9186952535939484</v>
+      </c>
+      <c r="N99" t="n">
+        <v>12.36613175470539</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8714291168.814009</v>
+        <v>12276844082.72079</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1337605695540053</v>
+        <v>0.1071068241267902</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.09841806016144876</v>
+        <v>0.1166275062276719</v>
       </c>
       <c r="I100" t="n">
-        <v>3.646808440622844</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8633301804820247</v>
+      </c>
+      <c r="N100" t="n">
+        <v>17.26660360964049</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10159711450.99648</v>
+        <v>12983413563.29123</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1673260228107425</v>
+        <v>0.1218563632967217</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2019033914865063</v>
+        <v>0.1673307548827036</v>
       </c>
       <c r="I101" t="n">
-        <v>8.642164329784354</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6.010636558577022</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8299321218999515</v>
+      </c>
+      <c r="N101" t="n">
+        <v>10.58800587942201</v>
       </c>
     </row>
   </sheetData>
